--- a/Resultados/resultados_AG_ID18.xlsx
+++ b/Resultados/resultados_AG_ID18.xlsx
@@ -108,7 +108,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="0">
-        <v>45.896865099999999</v>
+        <v>74.834010500000005</v>
       </c>
     </row>
     <row r="3">
@@ -122,7 +122,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="0">
-        <v>45.896865099999999</v>
+        <v>74.834010500000005</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados/resultados_AG_ID18.xlsx
+++ b/Resultados/resultados_AG_ID18.xlsx
@@ -71,7 +71,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -102,27 +102,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="0">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="C2" s="0">
         <v>30</v>
       </c>
       <c r="D2" s="0">
-        <v>74.834010500000005</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>18</v>
-      </c>
-      <c r="B3" s="0">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0">
-        <v>30</v>
-      </c>
-      <c r="D3" s="0">
-        <v>74.834010500000005</v>
+        <v>78.358873500000001</v>
       </c>
     </row>
   </sheetData>
